--- a/gsvesc-top-pos.xlsx
+++ b/gsvesc-top-pos.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="gsvesc-top-pos" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="gsvesc-all-pos" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="437">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -163,10 +163,10 @@
     <t xml:space="preserve">C12</t>
   </si>
   <si>
-    <t xml:space="preserve">-40.766900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.186200</t>
+    <t xml:space="preserve">-36.400500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.048000</t>
   </si>
   <si>
     <t xml:space="preserve">C13</t>
@@ -193,10 +193,10 @@
     <t xml:space="preserve">C15</t>
   </si>
   <si>
-    <t xml:space="preserve">-51.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.250000</t>
+    <t xml:space="preserve">-51.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.062500</t>
   </si>
   <si>
     <t xml:space="preserve">C16</t>
@@ -226,10 +226,10 @@
     <t xml:space="preserve">C18</t>
   </si>
   <si>
-    <t xml:space="preserve">-49.187500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.000000</t>
+    <t xml:space="preserve">-49.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.637500</t>
   </si>
   <si>
     <t xml:space="preserve">C19</t>
@@ -253,1006 +253,1045 @@
     <t xml:space="preserve">C21</t>
   </si>
   <si>
-    <t xml:space="preserve">11.000000</t>
+    <t xml:space="preserve">-47.337500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.938000</t>
   </si>
   <si>
     <t xml:space="preserve">C22</t>
   </si>
   <si>
-    <t xml:space="preserve">-41.750000</t>
+    <t xml:space="preserve">-41.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.880001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-45.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-30.937200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.316400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-40.561500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22u0/25V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.875000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-36.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-38.037500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-39.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-31.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.162500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-30.754000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.028000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-38.187500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.537500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP_EIA-3528-21_Kemet-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-14.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.537500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.037500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1n00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-45.917500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.483000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10.334800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.741600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.403000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.384000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9.826800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.816800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.813000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10.642000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.635500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.417000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-40.629500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.551600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.626800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-44.297600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.134300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.667500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.874700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-12.801000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.854400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.821100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED_0805_2012Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-38.754000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.119499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-30.118000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.017328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-34.436000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.055999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_SMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-35.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B5819W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_SOD-123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-49.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.950000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMMBD914LT3G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-51.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_01x06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JST_SH_BM06B-SRSS-TB_1x06-1MP_P1.00mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-48.025000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.950000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-51.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.775000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_01x03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JST_SH_BM03B-SRSS-TB_1x03-1MP_P1.00mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.950000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-52.075000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2pad_smd_testpin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-46.672500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.827500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_01x02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-19.280000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-19.820000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">470u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_12x12mm_H6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.050000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15u0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_7.3x7.3_H4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.475000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.050000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPH2R608NH,L1Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANS_TPHR8504PL-3PIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-31.329730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.497174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.581174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.165600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.722800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.603600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15.875000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.848800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16.002000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.847800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0R00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-33.320000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.907500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-37.625000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.137500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-35.325000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.087500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2k70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.152005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.787500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.390000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-46.762499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17.850000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42.637500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15.575000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.462500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10k0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-13.250000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-44.662500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1k00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-36.595000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.959000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.277000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">680k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.450000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-46.525000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56k0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-51.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-53.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.350000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.910000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.468000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-39.624000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.638000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.586500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-30.226000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-49.962500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-47.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4R75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-29.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.974500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.497000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-12.210000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-38.137500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.279600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.901900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-40.703500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.606500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.834300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0R001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_2512_6332Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.450000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.227000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.533100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.680700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.111200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5k90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42.197500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-46.692500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.170000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-31.850000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.850000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-34.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-11.633200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.775900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-11.684000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.638000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-36.957000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.035000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.082000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.052000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32F405RGTx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQFP-64_10x10mm_P0.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-35.928200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10.981400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN74LVC1G66DBVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M74VHC1GT66DTT1G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-46.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.431800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LM5107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOIC-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-47.105000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INA240A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INA240A1QPWRQ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.249600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.958800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.373001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.648400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.603200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.153600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-37.211000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.304000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-26.223001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.786300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.622300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.493001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LM5008MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSOP-8_3x3mm_P0.65mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.375000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-36.322000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-37.400000</t>
   </si>
   <si>
     <t xml:space="preserve">7.000000</t>
   </si>
   <si>
-    <t xml:space="preserve">C23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.880001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-45.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-30.937200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.316400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-39.250000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22u0/25V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.875000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-36.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.750000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-39.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.250000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-30.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.250000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-38.187500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP_EIA-3528-21_Kemet-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.537500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.037500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1n00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-45.917500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.483000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.334800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.741600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25.403000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.384000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9.826800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.816800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.813000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.642000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.635500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.417000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-40.629500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.551600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.626800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-44.297600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.134300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.667500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.874700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-12.801000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.854400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.821100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED_0805_2012Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-38.754000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.119499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-30.118000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.017328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GREEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-34.436000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.055999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_SMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-35.750000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.750000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B5819W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_SOD-123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-49.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.950000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conn_01x06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JST_SH_BM06B-SRSS-TB_1x06-1MP_P1.00mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-48.025000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.950000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-51.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.775000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-42.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conn_01x03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JST_SH_BM03B-SRSS-TB_1x03-1MP_P1.00mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.950000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-52.075000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2pad_smd_testpin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-46.672500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.827500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conn_01x02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-19.280000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-19.820000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L_12x12mm_H6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.050000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15u0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L_7.3x7.3_H4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.475000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.050000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPH2R506PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANS_TPHR8504PL-3PIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-31.329730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.497174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.581174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.165600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.722800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.603600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15.875000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.848800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16.002000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.847800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0R00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-33.320000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.907500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-37.625000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.137500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-35.325000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.087500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2k70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.152005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.787500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.390000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-46.762499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17.850000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-42.637500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15.575000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-43.462500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10k0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13.250000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-44.662500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1k00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-36.595000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.959000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.277000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">680k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.450000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-46.525000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56k0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-52.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-50.250000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-43.350000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-42.750000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-40.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-33.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.510000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-31.250000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-49.962500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-47.750000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4R75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-29.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.974500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.497000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-12.210000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-38.137500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.279600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.901900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-40.703500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.606500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.834300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0R0005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_2512_6332Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.450000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.227000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.533100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.680700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.111200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5k90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-42.197500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10K0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-46.692500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.170000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-31.850000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.850000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-34.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.537500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-11.633200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.775900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-11.684000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.638000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-36.957000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.035000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.082000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.052000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STM32F405RGTx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQFP-64_10x10mm_P0.5mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-35.928200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.981400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M74VHC1GT66DTT1G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-46.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.750000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LM5109A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOIC-8_3.9x4.9mm_P1.27mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-47.135000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INA240A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INA240A1QPWRQ1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.249600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.958800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.373001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.648400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25.603200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.153600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-37.211000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.304000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-26.223001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.786300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.622300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.493001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LM5008MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSOP-8_3x3mm_P0.65mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-43.375000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-36.870000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.653800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-37.750000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.000000</t>
-  </si>
-  <si>
     <t xml:space="preserve">U13</t>
   </si>
   <si>
-    <t xml:space="preserve">-27.830000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.580000</t>
+    <t xml:space="preserve">-27.068000</t>
   </si>
   <si>
     <t xml:space="preserve">U14</t>
@@ -1273,10 +1312,10 @@
     <t xml:space="preserve">U15</t>
   </si>
   <si>
-    <t xml:space="preserve">-28.365000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.950000</t>
+    <t xml:space="preserve">-27.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.800000</t>
   </si>
   <si>
     <t xml:space="preserve">Y1</t>
@@ -1365,12 +1404,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1391,16 +1426,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C144" activeCellId="0" sqref="C144"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F131" activeCellId="0" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.88"/>
@@ -1701,7 +1736,7 @@
         <v>48</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>13</v>
@@ -1839,7 +1874,7 @@
         <v>69</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>13</v>
@@ -1902,13 +1937,13 @@
         <v>9</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>13</v>
@@ -1916,7 +1951,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>29</v>
@@ -1925,10 +1960,10 @@
         <v>9</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>40</v>
@@ -1997,7 +2032,7 @@
         <v>88</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>27</v>
@@ -2040,13 +2075,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>13</v>
@@ -2054,7 +2089,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>29</v>
@@ -2066,7 +2101,7 @@
         <v>91</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>21</v>
@@ -2077,7 +2112,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>29</v>
@@ -2086,10 +2121,10 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>40</v>
@@ -2100,7 +2135,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>8</v>
@@ -2109,10 +2144,10 @@
         <v>9</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>27</v>
@@ -2123,7 +2158,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>53</v>
@@ -2132,10 +2167,10 @@
         <v>9</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>12</v>
@@ -2146,7 +2181,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>8</v>
@@ -2155,13 +2190,13 @@
         <v>9</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>13</v>
@@ -2169,19 +2204,19 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>12</v>
@@ -2192,19 +2227,19 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="C35" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>40</v>
@@ -2215,19 +2250,19 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>27</v>
@@ -2238,7 +2273,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>60</v>
@@ -2247,10 +2282,10 @@
         <v>61</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>27</v>
@@ -2261,7 +2296,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>60</v>
@@ -2270,10 +2305,10 @@
         <v>61</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>21</v>
@@ -2284,7 +2319,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>60</v>
@@ -2293,10 +2328,10 @@
         <v>61</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>21</v>
@@ -2307,7 +2342,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>60</v>
@@ -2316,10 +2351,10 @@
         <v>61</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>21</v>
@@ -2330,19 +2365,19 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>27</v>
@@ -2353,7 +2388,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>53</v>
@@ -2362,10 +2397,10 @@
         <v>9</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>40</v>
@@ -2376,7 +2411,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>29</v>
@@ -2385,7 +2420,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>39</v>
@@ -2399,7 +2434,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>60</v>
@@ -2408,10 +2443,10 @@
         <v>61</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>27</v>
@@ -2422,7 +2457,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>60</v>
@@ -2431,10 +2466,10 @@
         <v>61</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>21</v>
@@ -2445,7 +2480,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>8</v>
@@ -2454,10 +2489,10 @@
         <v>9</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>40</v>
@@ -2468,7 +2503,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>8</v>
@@ -2477,10 +2512,10 @@
         <v>9</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>40</v>
@@ -2491,19 +2526,19 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>27</v>
@@ -2514,7 +2549,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>8</v>
@@ -2523,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>40</v>
@@ -2537,19 +2572,19 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>40</v>
@@ -2560,19 +2595,19 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B51" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>152</v>
-      </c>
       <c r="D51" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>40</v>
@@ -2583,19 +2618,19 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>40</v>
@@ -2606,19 +2641,19 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>40</v>
@@ -2629,19 +2664,19 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>164</v>
-      </c>
       <c r="C54" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>40</v>
@@ -2652,19 +2687,19 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>12</v>
@@ -2675,19 +2710,19 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>172</v>
-      </c>
       <c r="C56" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>21</v>
@@ -2698,22 +2733,22 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>13</v>
@@ -2721,22 +2756,22 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>181</v>
-      </c>
       <c r="D58" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="G58" s="0" t="s">
         <v>13</v>
@@ -2744,22 +2779,22 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>13</v>
@@ -2767,22 +2802,22 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>13</v>
@@ -2790,13 +2825,13 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>201</v>
@@ -2805,7 +2840,7 @@
         <v>202</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>13</v>
@@ -2813,13 +2848,13 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>205</v>
@@ -2851,7 +2886,7 @@
         <v>212</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>13</v>
@@ -2874,7 +2909,7 @@
         <v>217</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>13</v>
@@ -2888,16 +2923,16 @@
         <v>219</v>
       </c>
       <c r="C65" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="E65" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="F65" s="0" t="s">
         <v>222</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>13</v>
@@ -2908,19 +2943,19 @@
         <v>223</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>13</v>
@@ -2928,22 +2963,22 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>13</v>
@@ -2951,19 +2986,19 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>40</v>
@@ -2974,19 +3009,19 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>40</v>
@@ -2997,19 +3032,19 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>40</v>
@@ -3020,19 +3055,19 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F71" s="0" t="s">
         <v>40</v>
@@ -3043,22 +3078,22 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>13</v>
@@ -3066,22 +3101,22 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>13</v>
@@ -3089,22 +3124,22 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>13</v>
@@ -3112,19 +3147,19 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B75" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C75" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="C75" s="0" t="s">
-        <v>238</v>
-      </c>
       <c r="D75" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>12</v>
@@ -3135,19 +3170,19 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F76" s="0" t="s">
         <v>12</v>
@@ -3158,19 +3193,19 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>12</v>
@@ -3181,19 +3216,19 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F78" s="0" t="s">
         <v>12</v>
@@ -3204,22 +3239,22 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>154</v>
+        <v>273</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>13</v>
@@ -3227,22 +3262,22 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>162</v>
+        <v>276</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>13</v>
@@ -3250,22 +3285,22 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G81" s="0" t="s">
         <v>13</v>
@@ -3273,19 +3308,19 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>277</v>
+        <v>158</v>
       </c>
       <c r="F82" s="0" t="s">
         <v>40</v>
@@ -3296,22 +3331,22 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>281</v>
+        <v>166</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>13</v>
@@ -3319,22 +3354,22 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>281</v>
+        <v>166</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>13</v>
@@ -3342,22 +3377,22 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>13</v>
@@ -3365,22 +3400,22 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>288</v>
+        <v>69</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>13</v>
@@ -3388,19 +3423,19 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>281</v>
+        <v>69</v>
       </c>
       <c r="F87" s="0" t="s">
         <v>12</v>
@@ -3411,22 +3446,22 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>13</v>
@@ -3434,22 +3469,22 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>13</v>
@@ -3457,19 +3492,19 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="F90" s="0" t="s">
         <v>12</v>
@@ -3480,22 +3515,22 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>13</v>
@@ -3503,22 +3538,22 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>13</v>
@@ -3526,22 +3561,22 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>82</v>
+        <v>312</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>13</v>
@@ -3549,19 +3584,19 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="F94" s="0" t="s">
         <v>21</v>
@@ -3572,22 +3607,22 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D95" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="F95" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>13</v>
@@ -3595,22 +3630,22 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>312</v>
+        <v>82</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>13</v>
@@ -3618,22 +3653,22 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>13</v>
@@ -3641,22 +3676,22 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>318</v>
+        <v>21</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>13</v>
@@ -3664,19 +3699,19 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F99" s="0" t="s">
         <v>12</v>
@@ -3687,22 +3722,22 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>148</v>
+        <v>330</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>13</v>
@@ -3710,22 +3745,22 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>13</v>
@@ -3733,22 +3768,22 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>13</v>
@@ -3756,22 +3791,22 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>333</v>
+        <v>152</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>13</v>
@@ -3779,22 +3814,22 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>238</v>
+        <v>342</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>13</v>
@@ -3802,22 +3837,22 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>13</v>
@@ -3825,22 +3860,22 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>13</v>
@@ -3848,22 +3883,22 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G107" s="0" t="s">
         <v>13</v>
@@ -3871,22 +3906,22 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>340</v>
+        <v>278</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>13</v>
@@ -3894,22 +3929,22 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>13</v>
@@ -3917,22 +3952,22 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G110" s="0" t="s">
         <v>13</v>
@@ -3940,22 +3975,22 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G111" s="0" t="s">
         <v>13</v>
@@ -3963,19 +3998,19 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F112" s="0" t="s">
         <v>12</v>
@@ -3986,22 +4021,22 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>365</v>
+        <v>253</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G113" s="0" t="s">
         <v>13</v>
@@ -4009,22 +4044,22 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G114" s="0" t="s">
         <v>13</v>
@@ -4032,22 +4067,22 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="C115" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D115" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="E115" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="E115" s="0" t="s">
-        <v>376</v>
-      </c>
       <c r="F115" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G115" s="0" t="s">
         <v>13</v>
@@ -4055,22 +4090,22 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B116" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="C116" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="D116" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="E116" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="E116" s="0" t="s">
-        <v>381</v>
-      </c>
       <c r="F116" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G116" s="0" t="s">
         <v>13</v>
@@ -4078,19 +4113,19 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B117" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="B117" s="0" t="s">
-        <v>378</v>
-      </c>
       <c r="C117" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F117" s="0" t="s">
         <v>27</v>
@@ -4101,21 +4136,21 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="F118" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F118" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G118" s="0" t="s">
@@ -4124,19 +4159,19 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="F119" s="0" t="s">
         <v>27</v>
@@ -4147,22 +4182,22 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G120" s="0" t="s">
         <v>13</v>
@@ -4170,22 +4205,22 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G121" s="0" t="s">
         <v>13</v>
@@ -4193,22 +4228,22 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="F122" s="0" t="s">
-        <v>27</v>
+        <v>404</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>182</v>
       </c>
       <c r="G122" s="0" t="s">
         <v>13</v>
@@ -4216,22 +4251,22 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G123" s="0" t="s">
         <v>13</v>
@@ -4239,22 +4274,22 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G124" s="0" t="s">
         <v>13</v>
@@ -4262,19 +4297,19 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F125" s="0" t="s">
         <v>27</v>
@@ -4285,22 +4320,22 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G126" s="0" t="s">
         <v>13</v>
@@ -4308,19 +4343,19 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F127" s="0" t="s">
         <v>21</v>
@@ -4331,24 +4366,93 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="F128" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G128" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="F130" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G130" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="F131" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G128" s="0" t="s">
+      <c r="G131" s="0" t="s">
         <v>13</v>
       </c>
     </row>

--- a/gsvesc-top-pos.xlsx
+++ b/gsvesc-top-pos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="453">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -484,6 +484,12 @@
     <t xml:space="preserve">34.821100</t>
   </si>
   <si>
+    <t xml:space="preserve">C49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.462500</t>
+  </si>
+  <si>
     <t xml:space="preserve">D1</t>
   </si>
   <si>
@@ -604,6 +610,15 @@
     <t xml:space="preserve">9.600000</t>
   </si>
   <si>
+    <t xml:space="preserve">D11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.637500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.900000</t>
+  </si>
+  <si>
     <t xml:space="preserve">J1</t>
   </si>
   <si>
@@ -691,6 +706,15 @@
     <t xml:space="preserve">135.000000</t>
   </si>
   <si>
+    <t xml:space="preserve">J14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.400000</t>
+  </si>
+  <si>
     <t xml:space="preserve">L1</t>
   </si>
   <si>
@@ -1084,6 +1108,15 @@
     <t xml:space="preserve">-42.197500</t>
   </si>
   <si>
+    <t xml:space="preserve">R35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7k50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.762500</t>
+  </si>
+  <si>
     <t xml:space="preserve">R36</t>
   </si>
   <si>
@@ -1316,6 +1349,21 @@
   </si>
   <si>
     <t xml:space="preserve">6.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EYSGJNZWY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLE_EYSGJNZWY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.300000</t>
   </si>
   <si>
     <t xml:space="preserve">Y1</t>
@@ -1345,6 +1393,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1404,8 +1453,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1426,20 +1479,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F131" activeCellId="0" sqref="F131"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F133" activeCellId="0" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.16"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2571,43 +2624,43 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G50" s="0" t="s">
+      <c r="E50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="E51" s="0" t="s">
         <v>160</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>162</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>40</v>
@@ -2618,19 +2671,19 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="E52" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>40</v>
@@ -2641,19 +2694,19 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="E53" s="0" t="s">
         <v>168</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>171</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>40</v>
@@ -2664,19 +2717,19 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="D54" s="0" t="s">
+      <c r="E54" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>174</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>40</v>
@@ -2687,22 +2740,22 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="E55" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="C55" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>179</v>
-      </c>
       <c r="F55" s="0" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>13</v>
@@ -2710,22 +2763,22 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="D56" s="0" t="s">
+      <c r="E56" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="E56" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="F56" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>13</v>
@@ -2733,22 +2786,22 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="E57" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C57" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>187</v>
-      </c>
       <c r="F57" s="0" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>13</v>
@@ -2756,19 +2809,19 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="D58" s="0" t="s">
+      <c r="E58" s="0" t="s">
         <v>189</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>190</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>40</v>
@@ -2779,19 +2832,19 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="D59" s="0" t="s">
+      <c r="E59" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>193</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>40</v>
@@ -2802,68 +2855,68 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="E60" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="F60" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="B61" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E61" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F60" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="G61" s="0" t="s">
+      <c r="F61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F62" s="0" t="s">
         <v>204</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>207</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>13</v>
@@ -2871,22 +2924,22 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F63" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>13</v>
@@ -2894,22 +2947,22 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>13</v>
@@ -2917,22 +2970,22 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>215</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>13</v>
@@ -2940,22 +2993,22 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>13</v>
@@ -2963,68 +3016,68 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B68" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="E68" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G68" s="0" t="s">
+      <c r="F68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B69" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="D69" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="E69" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>239</v>
-      </c>
       <c r="F69" s="0" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>13</v>
@@ -3032,22 +3085,22 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E70" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>242</v>
-      </c>
       <c r="F70" s="0" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>13</v>
@@ -3055,19 +3108,19 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>235</v>
-      </c>
       <c r="D71" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F71" s="0" t="s">
         <v>40</v>
@@ -3078,16 +3131,16 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>247</v>
@@ -3104,10 +3157,10 @@
         <v>248</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>249</v>
@@ -3127,16 +3180,16 @@
         <v>251</v>
       </c>
       <c r="B74" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="E74" s="0" t="s">
         <v>252</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>255</v>
       </c>
       <c r="F74" s="0" t="s">
         <v>40</v>
@@ -3147,22 +3200,22 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>13</v>
@@ -3170,22 +3223,22 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B76" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D76" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>261</v>
-      </c>
       <c r="E76" s="0" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>13</v>
@@ -3193,22 +3246,22 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E77" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>266</v>
-      </c>
       <c r="F77" s="0" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>13</v>
@@ -3216,19 +3269,19 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="E78" s="0" t="s">
         <v>267</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>270</v>
       </c>
       <c r="F78" s="0" t="s">
         <v>12</v>
@@ -3239,19 +3292,19 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F79" s="0" t="s">
         <v>12</v>
@@ -3262,19 +3315,19 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="E80" s="0" t="s">
         <v>274</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>276</v>
       </c>
       <c r="F80" s="0" t="s">
         <v>12</v>
@@ -3285,19 +3338,19 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D81" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="E81" s="0" t="s">
         <v>278</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>280</v>
       </c>
       <c r="F81" s="0" t="s">
         <v>12</v>
@@ -3308,22 +3361,22 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="E82" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="B82" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="E82" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="F82" s="0" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>13</v>
@@ -3331,22 +3384,22 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="E83" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="B83" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="E83" s="0" t="s">
-        <v>166</v>
-      </c>
       <c r="F83" s="0" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>13</v>
@@ -3354,22 +3407,22 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D84" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B84" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D84" s="0" t="s">
+      <c r="E84" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="E84" s="0" t="s">
-        <v>166</v>
-      </c>
       <c r="F84" s="0" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>13</v>
@@ -3383,13 +3436,13 @@
         <v>290</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>291</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="F85" s="0" t="s">
         <v>40</v>
@@ -3400,22 +3453,22 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B86" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="C86" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D86" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="C86" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>295</v>
-      </c>
       <c r="E86" s="0" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>13</v>
@@ -3423,22 +3476,22 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D87" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>297</v>
-      </c>
       <c r="E87" s="0" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>13</v>
@@ -3446,13 +3499,13 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B88" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="B88" s="0" t="s">
-        <v>290</v>
-      </c>
       <c r="C88" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>299</v>
@@ -3461,7 +3514,7 @@
         <v>300</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>13</v>
@@ -3472,19 +3525,19 @@
         <v>301</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>302</v>
+        <v>69</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>13</v>
@@ -3492,19 +3545,19 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>305</v>
+        <v>69</v>
       </c>
       <c r="F90" s="0" t="s">
         <v>12</v>
@@ -3518,19 +3571,19 @@
         <v>306</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>307</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>13</v>
@@ -3538,22 +3591,22 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>309</v>
+        <v>82</v>
       </c>
       <c r="E92" s="0" t="s">
         <v>310</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>13</v>
@@ -3564,16 +3617,16 @@
         <v>311</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>312</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F93" s="0" t="s">
         <v>12</v>
@@ -3584,22 +3637,22 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="E94" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="B94" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>315</v>
-      </c>
       <c r="F94" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>13</v>
@@ -3610,19 +3663,19 @@
         <v>316</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>13</v>
@@ -3630,22 +3683,22 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="E96" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="B96" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E96" s="0" t="s">
-        <v>319</v>
-      </c>
       <c r="F96" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>13</v>
@@ -3653,13 +3706,13 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>322</v>
@@ -3679,19 +3732,19 @@
         <v>324</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>21</v>
+        <v>322</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>325</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>13</v>
@@ -3702,19 +3755,19 @@
         <v>326</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D99" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E99" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="E99" s="0" t="s">
-        <v>328</v>
-      </c>
       <c r="F99" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>13</v>
@@ -3722,13 +3775,13 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>278</v>
-      </c>
       <c r="C100" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>330</v>
@@ -3737,7 +3790,7 @@
         <v>331</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>13</v>
@@ -3748,19 +3801,19 @@
         <v>332</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D101" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="E101" s="0" t="s">
-        <v>334</v>
-      </c>
       <c r="F101" s="0" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>13</v>
@@ -3768,19 +3821,19 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D102" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="B102" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D102" s="0" t="s">
+      <c r="E102" s="0" t="s">
         <v>336</v>
-      </c>
-      <c r="E102" s="0" t="s">
-        <v>337</v>
       </c>
       <c r="F102" s="0" t="s">
         <v>12</v>
@@ -3791,22 +3844,22 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D103" s="0" t="s">
         <v>338</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>152</v>
       </c>
       <c r="E103" s="0" t="s">
         <v>339</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>13</v>
@@ -3817,19 +3870,19 @@
         <v>340</v>
       </c>
       <c r="B104" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D104" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="E104" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="D104" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="E104" s="0" t="s">
-        <v>344</v>
-      </c>
       <c r="F104" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>13</v>
@@ -3837,22 +3890,22 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="E105" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B105" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="E105" s="0" t="s">
-        <v>346</v>
-      </c>
       <c r="F105" s="0" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>13</v>
@@ -3860,22 +3913,22 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E106" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="B106" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="E106" s="0" t="s">
-        <v>349</v>
-      </c>
       <c r="F106" s="0" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>13</v>
@@ -3883,22 +3936,22 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="C107" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="D107" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="C107" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D107" s="0" t="s">
+      <c r="E107" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="E107" s="0" t="s">
-        <v>353</v>
-      </c>
       <c r="F107" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G107" s="0" t="s">
         <v>13</v>
@@ -3906,22 +3959,22 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="E108" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="B108" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>356</v>
-      </c>
       <c r="F108" s="0" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>13</v>
@@ -3929,22 +3982,22 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="E109" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="B109" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="E109" s="0" t="s">
-        <v>358</v>
-      </c>
       <c r="F109" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>13</v>
@@ -3952,13 +4005,13 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="B110" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="B110" s="0" t="s">
-        <v>321</v>
-      </c>
       <c r="C110" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>360</v>
@@ -3967,53 +4020,53 @@
         <v>361</v>
       </c>
       <c r="F110" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G110" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D111" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="E111" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="F111" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G111" s="0" t="s">
+      <c r="G111" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G112" s="0" t="s">
         <v>13</v>
@@ -4021,22 +4074,22 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="E113" s="0" t="s">
         <v>369</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G113" s="0" t="s">
         <v>13</v>
@@ -4047,10 +4100,10 @@
         <v>370</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>342</v>
+        <v>261</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>371</v>
@@ -4059,7 +4112,7 @@
         <v>372</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G114" s="0" t="s">
         <v>13</v>
@@ -4070,19 +4123,19 @@
         <v>373</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>342</v>
+        <v>261</v>
       </c>
       <c r="D115" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E115" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="E115" s="0" t="s">
-        <v>375</v>
-      </c>
       <c r="F115" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G115" s="0" t="s">
         <v>13</v>
@@ -4090,19 +4143,19 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D116" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="E116" s="0" t="s">
         <v>377</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="D116" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="E116" s="0" t="s">
-        <v>380</v>
       </c>
       <c r="F116" s="0" t="s">
         <v>12</v>
@@ -4113,22 +4166,22 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>383</v>
+        <v>261</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G117" s="0" t="s">
         <v>13</v>
@@ -4136,22 +4189,22 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G118" s="0" t="s">
         <v>13</v>
@@ -4159,22 +4212,22 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G119" s="0" t="s">
         <v>13</v>
@@ -4182,22 +4235,22 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G120" s="0" t="s">
         <v>13</v>
@@ -4205,22 +4258,22 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G121" s="0" t="s">
         <v>13</v>
@@ -4228,22 +4281,22 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="F122" s="0" t="n">
-        <v>182</v>
+        <v>401</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="G122" s="0" t="s">
         <v>13</v>
@@ -4251,22 +4304,22 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="D123" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="B123" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="D123" s="0" t="s">
+      <c r="E123" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="E123" s="0" t="s">
-        <v>407</v>
-      </c>
       <c r="F123" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G123" s="0" t="s">
         <v>13</v>
@@ -4274,22 +4327,22 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="D124" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="B124" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="D124" s="0" t="s">
+      <c r="E124" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="E124" s="0" t="s">
-        <v>410</v>
-      </c>
       <c r="F124" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G124" s="0" t="s">
         <v>13</v>
@@ -4297,22 +4350,22 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="D125" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="E125" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="C125" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="E125" s="0" t="s">
-        <v>415</v>
-      </c>
       <c r="F125" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G125" s="0" t="s">
         <v>13</v>
@@ -4320,22 +4373,22 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="F126" s="0" t="s">
-        <v>27</v>
+        <v>415</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>182</v>
       </c>
       <c r="G126" s="0" t="s">
         <v>13</v>
@@ -4343,22 +4396,22 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G127" s="0" t="s">
         <v>13</v>
@@ -4366,22 +4419,22 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G128" s="0" t="s">
         <v>13</v>
@@ -4389,22 +4442,22 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="C129" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="D129" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="E129" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="D129" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="E129" s="0" t="s">
-        <v>428</v>
-      </c>
       <c r="F129" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G129" s="0" t="s">
         <v>13</v>
@@ -4412,22 +4465,22 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="E130" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="B130" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="D130" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="E130" s="0" t="s">
-        <v>431</v>
-      </c>
       <c r="F130" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G130" s="0" t="s">
         <v>13</v>
@@ -4435,24 +4488,139 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="E131" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="F131" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G131" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="B132" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="D132" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="D131" s="0" t="s">
+      <c r="E132" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="E131" s="0" t="s">
+      <c r="B133" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="F131" s="0" t="s">
+      <c r="C133" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="F133" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G134" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="F136" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G131" s="0" t="s">
+      <c r="G136" s="0" t="s">
         <v>13</v>
       </c>
     </row>

--- a/gsvesc-top-pos.xlsx
+++ b/gsvesc-top-pos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="454">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -82,877 +82,883 @@
     <t xml:space="preserve">-49.954400</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-12.523000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-45.926500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.189000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10u0/25V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.946000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18.985000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-26.090000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9.620000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.030000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-38.534000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-19.889000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-29.278000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-26.060300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.301000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-36.400500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.048000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-45.854000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-14.960000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10n0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-37.259500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.129000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-51.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.062500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10u0/75V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_1210_3225Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-47.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.175000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.875000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-49.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.637500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.775000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-48.850000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.825000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.850000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-47.337500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.938000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-30.937200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.316400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-40.561500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22u0/25V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.875000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-36.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-38.037500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-39.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-31.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.162500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-30.754000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.028000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-38.187500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.537500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP_EIA-3528-21_Kemet-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-14.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.537500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.037500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1n00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-45.917500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.483000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10.334800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.741600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.403000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.384000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9.826800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.816800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.813000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10.642000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.635500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.417000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-40.629500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.551600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.626800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-44.297600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.134300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.667500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.874700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-12.801000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.854400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.821100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.462500</t>
+  </si>
+  <si>
     <t xml:space="preserve">-4.100000</t>
   </si>
   <si>
-    <t xml:space="preserve">0.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-12.523000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-45.926500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.189000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10u0/25V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.946000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18.985000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-26.090000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9.620000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.030000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-38.534000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-19.889000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-29.278000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-26.060300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.301000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-36.400500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.048000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-45.854000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14.960000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10n0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-37.259500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.129000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-51.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.062500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10u0/75V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C_1210_3225Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-47.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.175000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.875000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-49.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.637500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.775000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-48.850000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.825000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.850000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-47.337500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.938000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23</t>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED_0805_2012Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-38.754000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.119499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-30.118000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.017328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-34.436000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.055999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_SMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-35.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B5819W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_SOD-123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-49.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.950000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMMBD914LT3G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-51.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.637500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_01x06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JST_SH_BM06B-SRSS-TB_1x06-1MP_P1.00mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-48.025000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.950000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-51.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.775000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_01x03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JST_SH_BM03B-SRSS-TB_1x03-1MP_P1.00mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.950000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-52.075000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2pad_smd_testpin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-46.672500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.827500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_01x02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-19.280000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-19.820000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">470u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_12x12mm_H6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.050000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15u0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_7.3x7.3_H4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.475000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.050000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPH2R608NH,L1Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANS_TPHR8504PL-3PIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-31.329730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.497174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.581174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.165600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.722800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.603600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15.875000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.848800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16.002000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.847800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0R00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-33.320000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.907500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-37.625000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.137500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-35.325000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.087500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2k70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.152005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.787500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.390000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-46.762499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17.850000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42.637500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15.575000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.462500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10k0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-13.250000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-44.662500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1k00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-36.595000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.959000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.277000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">680k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.450000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-46.525000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56k0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-51.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-53.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16</t>
   </si>
   <si>
     <t xml:space="preserve">8.880001</t>
   </si>
   <si>
-    <t xml:space="preserve">-45.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-30.937200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.316400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-40.561500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22u0/25V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.875000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-36.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-38.037500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-39.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-31.700000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.162500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-30.754000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.028000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-38.187500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.537500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.700000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP_EIA-3528-21_Kemet-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.537500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.037500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1n00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-45.917500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.483000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.334800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.741600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25.403000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.384000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9.826800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.816800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.813000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.642000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.635500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.417000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-40.629500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.551600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.626800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-44.297600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.134300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.667500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.874700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-12.801000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.854400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.821100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.462500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED_0805_2012Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-38.754000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.119499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-30.118000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.017328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GREEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-34.436000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.055999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_SMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-35.750000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.750000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B5819W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_SOD-123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-49.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.950000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMMBD914LT3G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-51.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-42.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.637500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conn_01x06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JST_SH_BM06B-SRSS-TB_1x06-1MP_P1.00mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-48.025000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.950000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-51.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.775000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-42.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conn_01x03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JST_SH_BM03B-SRSS-TB_1x03-1MP_P1.00mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.950000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-52.075000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2pad_smd_testpin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-46.672500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.827500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conn_01x02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-19.280000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-19.820000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L_12x12mm_H6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.050000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15u0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L_7.3x7.3_H4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.475000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.050000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPH2R608NH,L1Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANS_TPHR8504PL-3PIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-31.329730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.497174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.581174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.165600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.722800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.603600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15.875000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.848800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16.002000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.847800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0R00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-33.320000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.907500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-37.625000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.137500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-35.325000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.087500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2k70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.152005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.787500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.390000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-46.762499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17.850000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-42.637500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15.575000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-43.462500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10k0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13.250000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-44.662500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1k00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-36.595000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.959000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.277000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">680k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.450000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-46.525000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56k0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-51.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-53.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-43.350000</t>
+    <t xml:space="preserve">-45.600000</t>
   </si>
   <si>
     <t xml:space="preserve">R17</t>
@@ -1036,6 +1042,9 @@
     <t xml:space="preserve">R27</t>
   </si>
   <si>
+    <t xml:space="preserve">13k0</t>
+  </si>
+  <si>
     <t xml:space="preserve">-12.210000</t>
   </si>
   <si>
@@ -1099,7 +1108,7 @@
     <t xml:space="preserve">R34</t>
   </si>
   <si>
-    <t xml:space="preserve">5k90</t>
+    <t xml:space="preserve">7k50</t>
   </si>
   <si>
     <t xml:space="preserve">-9.600000</t>
@@ -1111,7 +1120,7 @@
     <t xml:space="preserve">R35</t>
   </si>
   <si>
-    <t xml:space="preserve">7k50</t>
+    <t xml:space="preserve">4k70</t>
   </si>
   <si>
     <t xml:space="preserve">39.762500</t>
@@ -1141,12 +1150,6 @@
     <t xml:space="preserve">-34.200000</t>
   </si>
   <si>
-    <t xml:space="preserve">R41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.200000</t>
-  </si>
-  <si>
     <t xml:space="preserve">R42</t>
   </si>
   <si>
@@ -1369,16 +1372,16 @@
     <t xml:space="preserve">Y1</t>
   </si>
   <si>
-    <t xml:space="preserve">ABM3B 8MHz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal_SMD_5032-4Pin_5.0x3.2mm</t>
+    <t xml:space="preserve">X50328MSB2GI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal_SMD_5032-2Pin_5.0x3.2mm</t>
   </si>
   <si>
     <t xml:space="preserve">-50.174400</t>
   </si>
   <si>
-    <t xml:space="preserve">-8.254800</t>
+    <t xml:space="preserve">-8.150000</t>
   </si>
 </sst>
 </file>
@@ -1388,12 +1391,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1409,6 +1411,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1453,12 +1461,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1479,20 +1491,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F133" activeCellId="0" sqref="F133"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.18"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1535,7 +1547,7 @@
       <c r="E2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="0" t="s">
@@ -1558,7 +1570,7 @@
       <c r="E3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="0" t="s">
@@ -1581,7 +1593,7 @@
       <c r="E4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
@@ -1604,7 +1616,7 @@
       <c r="E5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="0" t="s">
@@ -1627,7 +1639,7 @@
       <c r="E6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="0" t="s">
@@ -1650,7 +1662,7 @@
       <c r="E7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="0" t="s">
@@ -1673,7 +1685,7 @@
       <c r="E8" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="0" t="s">
@@ -1696,7 +1708,7 @@
       <c r="E9" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="0" t="s">
@@ -1719,7 +1731,7 @@
       <c r="E10" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="0" t="s">
@@ -1742,7 +1754,7 @@
       <c r="E11" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="0" t="s">
@@ -1765,7 +1777,7 @@
       <c r="E12" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="0" t="s">
@@ -1788,7 +1800,7 @@
       <c r="E13" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="0" t="s">
@@ -1811,7 +1823,7 @@
       <c r="E14" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="0" t="s">
@@ -1834,7 +1846,7 @@
       <c r="E15" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="0" t="s">
@@ -1857,7 +1869,7 @@
       <c r="E16" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="0" t="s">
@@ -1880,7 +1892,7 @@
       <c r="E17" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="0" t="s">
@@ -1903,7 +1915,7 @@
       <c r="E18" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="0" t="s">
@@ -1926,7 +1938,7 @@
       <c r="E19" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="0" t="s">
@@ -1949,7 +1961,7 @@
       <c r="E20" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="0" t="s">
@@ -1972,7 +1984,7 @@
       <c r="E21" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G21" s="0" t="s">
@@ -1995,7 +2007,7 @@
       <c r="E22" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="0" t="s">
@@ -2018,7 +2030,7 @@
       <c r="E23" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="0" t="s">
@@ -2041,7 +2053,7 @@
       <c r="E24" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G24" s="0" t="s">
@@ -2064,7 +2076,7 @@
       <c r="E25" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="0" t="s">
@@ -2087,7 +2099,7 @@
       <c r="E26" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G26" s="0" t="s">
@@ -2110,7 +2122,7 @@
       <c r="E27" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G27" s="0" t="s">
@@ -2133,7 +2145,7 @@
       <c r="E28" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G28" s="0" t="s">
@@ -2156,7 +2168,7 @@
       <c r="E29" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="0" t="s">
@@ -2179,7 +2191,7 @@
       <c r="E30" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G30" s="0" t="s">
@@ -2202,7 +2214,7 @@
       <c r="E31" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G31" s="0" t="s">
@@ -2225,7 +2237,7 @@
       <c r="E32" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="0" t="s">
@@ -2248,7 +2260,7 @@
       <c r="E33" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G33" s="0" t="s">
@@ -2271,7 +2283,7 @@
       <c r="E34" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="0" t="s">
@@ -2294,7 +2306,7 @@
       <c r="E35" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G35" s="0" t="s">
@@ -2317,7 +2329,7 @@
       <c r="E36" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G36" s="0" t="s">
@@ -2340,7 +2352,7 @@
       <c r="E37" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G37" s="0" t="s">
@@ -2363,7 +2375,7 @@
       <c r="E38" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="0" t="s">
@@ -2386,7 +2398,7 @@
       <c r="E39" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G39" s="0" t="s">
@@ -2409,7 +2421,7 @@
       <c r="E40" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G40" s="0" t="s">
@@ -2432,7 +2444,7 @@
       <c r="E41" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G41" s="0" t="s">
@@ -2455,7 +2467,7 @@
       <c r="E42" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G42" s="0" t="s">
@@ -2478,7 +2490,7 @@
       <c r="E43" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="0" t="s">
@@ -2501,7 +2513,7 @@
       <c r="E44" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G44" s="0" t="s">
@@ -2524,7 +2536,7 @@
       <c r="E45" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G45" s="0" t="s">
@@ -2547,7 +2559,7 @@
       <c r="E46" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G46" s="0" t="s">
@@ -2570,7 +2582,7 @@
       <c r="E47" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G47" s="0" t="s">
@@ -2593,7 +2605,7 @@
       <c r="E48" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G48" s="0" t="s">
@@ -2616,7 +2628,7 @@
       <c r="E49" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G49" s="0" t="s">
@@ -2624,45 +2636,45 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="E50" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="F51" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G51" s="0" t="s">
@@ -2671,21 +2683,21 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="F52" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G52" s="0" t="s">
@@ -2694,21 +2706,21 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="F53" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G53" s="0" t="s">
@@ -2717,21 +2729,21 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="F54" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G54" s="0" t="s">
@@ -2740,21 +2752,21 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="F55" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G55" s="0" t="s">
@@ -2763,21 +2775,21 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="F56" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G56" s="0" t="s">
@@ -2786,21 +2798,21 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="F57" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G57" s="0" t="s">
@@ -2809,21 +2821,21 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="F58" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G58" s="0" t="s">
@@ -2832,21 +2844,21 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="F59" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G59" s="0" t="s">
@@ -2855,68 +2867,68 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="F60" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D61" s="1" t="s">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="B61" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="E61" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="F62" s="0" t="s">
         <v>204</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>13</v>
@@ -2924,22 +2936,22 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="F63" s="0" t="s">
         <v>208</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>13</v>
@@ -2947,22 +2959,22 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="F64" s="0" t="s">
         <v>212</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>13</v>
@@ -2970,21 +2982,21 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="F65" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G65" s="0" t="s">
@@ -2993,21 +3005,21 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="F66" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G66" s="0" t="s">
@@ -3016,67 +3028,67 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="F67" s="0" t="s">
         <v>227</v>
       </c>
+      <c r="F67" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="G67" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="A68" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B68" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E68" s="1" t="s">
+      <c r="C68" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D68" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="E68" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="F69" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G69" s="0" t="s">
@@ -3085,21 +3097,21 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="F70" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G70" s="0" t="s">
@@ -3108,21 +3120,21 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="F71" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G71" s="0" t="s">
@@ -3131,21 +3143,21 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="F72" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G72" s="0" t="s">
@@ -3154,21 +3166,21 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="F73" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G73" s="0" t="s">
@@ -3177,21 +3189,21 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="F74" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G74" s="0" t="s">
@@ -3200,21 +3212,21 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="F75" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G75" s="0" t="s">
@@ -3223,21 +3235,21 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="F76" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G76" s="0" t="s">
@@ -3246,21 +3258,21 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F77" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G77" s="0" t="s">
@@ -3269,21 +3281,21 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="F78" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G78" s="0" t="s">
@@ -3292,21 +3304,21 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="F79" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G79" s="0" t="s">
@@ -3315,21 +3327,21 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="F80" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G80" s="0" t="s">
@@ -3338,21 +3350,21 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="F81" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G81" s="0" t="s">
@@ -3361,21 +3373,21 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="F82" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G82" s="0" t="s">
@@ -3384,21 +3396,21 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="F83" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G83" s="0" t="s">
@@ -3407,21 +3419,21 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="F84" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G84" s="0" t="s">
@@ -3430,21 +3442,21 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="F85" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G85" s="0" t="s">
@@ -3453,21 +3465,21 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="F86" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G86" s="0" t="s">
@@ -3476,21 +3488,21 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="F87" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G87" s="0" t="s">
@@ -3499,21 +3511,21 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F88" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G88" s="0" t="s">
@@ -3522,21 +3534,21 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E89" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F89" s="0" t="s">
+      <c r="F89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G89" s="0" t="s">
@@ -3545,21 +3557,21 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E90" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F90" s="0" t="s">
+      <c r="F90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G90" s="0" t="s">
@@ -3568,21 +3580,21 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="F91" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G91" s="0" t="s">
@@ -3591,21 +3603,21 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>82</v>
+        <v>311</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="F92" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G92" s="0" t="s">
@@ -3614,21 +3626,21 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="F93" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G93" s="0" t="s">
@@ -3637,21 +3649,21 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D94" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="E94" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="E94" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="F94" s="0" t="s">
+      <c r="F94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G94" s="0" t="s">
@@ -3660,21 +3672,21 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="F95" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G95" s="0" t="s">
@@ -3683,21 +3695,21 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D96" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="E96" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="E96" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="F96" s="0" t="s">
+      <c r="F96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G96" s="0" t="s">
@@ -3706,21 +3718,21 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="F97" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G97" s="0" t="s">
@@ -3729,21 +3741,21 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D98" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="B98" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>322</v>
-      </c>
       <c r="E98" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="F98" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G98" s="0" t="s">
@@ -3752,21 +3764,21 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>82</v>
+        <v>311</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="F99" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G99" s="0" t="s">
@@ -3775,21 +3787,21 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="F100" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G100" s="0" t="s">
@@ -3798,21 +3810,21 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="F101" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G101" s="0" t="s">
@@ -3821,21 +3833,21 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="F102" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G102" s="0" t="s">
@@ -3844,21 +3856,21 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="F103" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G103" s="0" t="s">
@@ -3867,21 +3879,21 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="F104" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G104" s="0" t="s">
@@ -3890,21 +3902,21 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="F105" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G105" s="0" t="s">
@@ -3913,21 +3925,21 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>152</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="F106" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G106" s="0" t="s">
@@ -3936,21 +3948,21 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="F107" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G107" s="0" t="s">
@@ -3959,21 +3971,21 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="F108" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G108" s="0" t="s">
@@ -3982,21 +3994,21 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="F109" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G109" s="0" t="s">
@@ -4005,21 +4017,21 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="F110" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G110" s="0" t="s">
@@ -4027,45 +4039,45 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F111" s="1" t="s">
+      <c r="A111" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G111" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="F112" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G112" s="0" t="s">
@@ -4074,21 +4086,21 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="F113" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G113" s="0" t="s">
@@ -4097,21 +4109,21 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="F114" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G114" s="0" t="s">
@@ -4120,22 +4132,22 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>108</v>
+        <v>377</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="F115" s="0" t="s">
-        <v>27</v>
+        <v>378</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G115" s="0" t="s">
         <v>13</v>
@@ -4143,22 +4155,22 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="F116" s="0" t="s">
-        <v>12</v>
+        <v>381</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G116" s="0" t="s">
         <v>13</v>
@@ -4166,22 +4178,22 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>261</v>
+        <v>353</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="F117" s="0" t="s">
-        <v>40</v>
+        <v>384</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G117" s="0" t="s">
         <v>13</v>
@@ -4189,21 +4201,21 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="F118" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G118" s="0" t="s">
@@ -4212,21 +4224,21 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="F119" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G119" s="0" t="s">
@@ -4235,21 +4247,21 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="F120" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G120" s="0" t="s">
@@ -4258,22 +4270,22 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="F121" s="0" t="s">
-        <v>12</v>
+        <v>402</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G121" s="0" t="s">
         <v>13</v>
@@ -4281,22 +4293,22 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="F122" s="0" t="s">
-        <v>21</v>
+        <v>407</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G122" s="0" t="s">
         <v>13</v>
@@ -4304,21 +4316,21 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="F123" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G123" s="0" t="s">
@@ -4327,22 +4339,22 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="F124" s="0" t="s">
-        <v>27</v>
+        <v>413</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G124" s="0" t="s">
         <v>13</v>
@@ -4350,22 +4362,22 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="F125" s="0" t="s">
-        <v>21</v>
+        <v>416</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G125" s="0" t="s">
         <v>13</v>
@@ -4373,22 +4385,22 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="F126" s="0" t="n">
-        <v>182</v>
+        <v>419</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G126" s="0" t="s">
         <v>13</v>
@@ -4396,21 +4408,21 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="F127" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G127" s="0" t="s">
@@ -4419,22 +4431,22 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="F128" s="0" t="s">
-        <v>12</v>
+        <v>427</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G128" s="0" t="s">
         <v>13</v>
@@ -4442,22 +4454,22 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="F129" s="0" t="s">
-        <v>27</v>
+        <v>430</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G129" s="0" t="s">
         <v>13</v>
@@ -4465,22 +4477,22 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="F130" s="0" t="s">
-        <v>12</v>
+        <v>433</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G130" s="0" t="s">
         <v>13</v>
@@ -4488,22 +4500,22 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="F131" s="0" t="s">
-        <v>21</v>
+        <v>397</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G131" s="0" t="s">
         <v>13</v>
@@ -4511,21 +4523,21 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="F132" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G132" s="0" t="s">
@@ -4534,22 +4546,22 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="F133" s="0" t="s">
-        <v>12</v>
+        <v>443</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G133" s="0" t="s">
         <v>13</v>
@@ -4557,21 +4569,21 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="F134" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G134" s="0" t="s">
@@ -4579,48 +4591,25 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>447</v>
+      <c r="A135" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>453</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="C136" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="D136" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="E136" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="F136" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G136" s="0" t="s">
+      <c r="G135" s="0" t="s">
         <v>13</v>
       </c>
     </row>

--- a/gsvesc-top-pos.xlsx
+++ b/gsvesc-top-pos.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="454">
-  <si>
-    <t xml:space="preserve">Designator</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="463">
+  <si>
+    <t xml:space="preserve">Ref</t>
   </si>
   <si>
     <t xml:space="preserve">Val</t>
@@ -31,16 +31,16 @@
     <t xml:space="preserve">Package</t>
   </si>
   <si>
-    <t xml:space="preserve">Mid X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mid Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer</t>
+    <t xml:space="preserve">PosX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PosY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Side</t>
   </si>
   <si>
     <t xml:space="preserve">C1</t>
@@ -184,19 +184,19 @@
     <t xml:space="preserve">10n0</t>
   </si>
   <si>
-    <t xml:space="preserve">-37.259500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.129000</t>
+    <t xml:space="preserve">-44.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.250000</t>
   </si>
   <si>
     <t xml:space="preserve">C15</t>
   </si>
   <si>
-    <t xml:space="preserve">-51.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.062500</t>
+    <t xml:space="preserve">-26.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.462500</t>
   </si>
   <si>
     <t xml:space="preserve">C16</t>
@@ -253,16 +253,19 @@
     <t xml:space="preserve">C21</t>
   </si>
   <si>
-    <t xml:space="preserve">-47.337500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.938000</t>
+    <t xml:space="preserve">-31.837500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.300000</t>
   </si>
   <si>
     <t xml:space="preserve">C22</t>
   </si>
   <si>
-    <t xml:space="preserve">-41.400000</t>
+    <t xml:space="preserve">-12.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.862500</t>
   </si>
   <si>
     <t xml:space="preserve">C23</t>
@@ -277,10 +280,10 @@
     <t xml:space="preserve">C24</t>
   </si>
   <si>
-    <t xml:space="preserve">-30.937200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.316400</t>
+    <t xml:space="preserve">-29.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.500000</t>
   </si>
   <si>
     <t xml:space="preserve">C25</t>
@@ -304,10 +307,10 @@
     <t xml:space="preserve">C27</t>
   </si>
   <si>
-    <t xml:space="preserve">-38.037500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.000000</t>
+    <t xml:space="preserve">-17.037500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.600000</t>
   </si>
   <si>
     <t xml:space="preserve">C28</t>
@@ -319,10 +322,10 @@
     <t xml:space="preserve">C29</t>
   </si>
   <si>
-    <t xml:space="preserve">-31.700000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.162500</t>
+    <t xml:space="preserve">8.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.837500</t>
   </si>
   <si>
     <t xml:space="preserve">C30</t>
@@ -346,10 +349,10 @@
     <t xml:space="preserve">C32</t>
   </si>
   <si>
-    <t xml:space="preserve">-28.537500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.700000</t>
+    <t xml:space="preserve">3.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.900000</t>
   </si>
   <si>
     <t xml:space="preserve">C33</t>
@@ -388,34 +391,34 @@
     <t xml:space="preserve">C36</t>
   </si>
   <si>
-    <t xml:space="preserve">-10.334800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.741600</t>
+    <t xml:space="preserve">2.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.800000</t>
   </si>
   <si>
     <t xml:space="preserve">C37</t>
   </si>
   <si>
-    <t xml:space="preserve">-25.403000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.384000</t>
+    <t xml:space="preserve">-33.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.600000</t>
   </si>
   <si>
     <t xml:space="preserve">C38</t>
   </si>
   <si>
-    <t xml:space="preserve">-9.826800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.816800</t>
+    <t xml:space="preserve">-18.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.000000</t>
   </si>
   <si>
     <t xml:space="preserve">C39</t>
   </si>
   <si>
-    <t xml:space="preserve">27.813000</t>
+    <t xml:space="preserve">21.100000</t>
   </si>
   <si>
     <t xml:space="preserve">C40</t>
@@ -427,10 +430,7 @@
     <t xml:space="preserve">C41</t>
   </si>
   <si>
-    <t xml:space="preserve">-4.635500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.417000</t>
+    <t xml:space="preserve">-9.262500</t>
   </si>
   <si>
     <t xml:space="preserve">C42</t>
@@ -442,31 +442,34 @@
     <t xml:space="preserve">C43</t>
   </si>
   <si>
-    <t xml:space="preserve">44.551600</t>
+    <t xml:space="preserve">39.400000</t>
   </si>
   <si>
     <t xml:space="preserve">C44</t>
   </si>
   <si>
-    <t xml:space="preserve">36.626800</t>
+    <t xml:space="preserve">-18.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.400000</t>
   </si>
   <si>
     <t xml:space="preserve">C45</t>
   </si>
   <si>
-    <t xml:space="preserve">-44.297600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.134300</t>
+    <t xml:space="preserve">-50.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.612500</t>
   </si>
   <si>
     <t xml:space="preserve">C46</t>
   </si>
   <si>
-    <t xml:space="preserve">6.667500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.874700</t>
+    <t xml:space="preserve">-14.550000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.575000</t>
   </si>
   <si>
     <t xml:space="preserve">C47</t>
@@ -478,10 +481,10 @@
     <t xml:space="preserve">C48</t>
   </si>
   <si>
-    <t xml:space="preserve">-28.854400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.821100</t>
+    <t xml:space="preserve">-35.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.287500</t>
   </si>
   <si>
     <t xml:space="preserve">C49</t>
@@ -589,28 +592,28 @@
     <t xml:space="preserve">SOT-23</t>
   </si>
   <si>
-    <t xml:space="preserve">-32.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.100000</t>
+    <t xml:space="preserve">8.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.750000</t>
   </si>
   <si>
     <t xml:space="preserve">D9</t>
   </si>
   <si>
-    <t xml:space="preserve">-51.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.000000</t>
+    <t xml:space="preserve">-28.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.100000</t>
   </si>
   <si>
     <t xml:space="preserve">D10</t>
   </si>
   <si>
-    <t xml:space="preserve">-42.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.600000</t>
+    <t xml:space="preserve">-13.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.400000</t>
   </si>
   <si>
     <t xml:space="preserve">D11</t>
@@ -688,10 +691,10 @@
     <t xml:space="preserve">2pad_smd_testpin</t>
   </si>
   <si>
-    <t xml:space="preserve">-46.672500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.827500</t>
+    <t xml:space="preserve">-24.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.475000</t>
   </si>
   <si>
     <t xml:space="preserve">J13</t>
@@ -757,49 +760,49 @@
     <t xml:space="preserve">TRANS_TPHR8504PL-3PIN</t>
   </si>
   <si>
-    <t xml:space="preserve">-31.329730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.497174</t>
+    <t xml:space="preserve">-39.629730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.797174</t>
   </si>
   <si>
     <t xml:space="preserve">Q2</t>
   </si>
   <si>
-    <t xml:space="preserve">18.581174</t>
+    <t xml:space="preserve">7.881174</t>
   </si>
   <si>
     <t xml:space="preserve">Q3</t>
   </si>
   <si>
-    <t xml:space="preserve">-4.165600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.722800</t>
+    <t xml:space="preserve">-3.615600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.097800</t>
   </si>
   <si>
     <t xml:space="preserve">Q4</t>
   </si>
   <si>
-    <t xml:space="preserve">34.603600</t>
+    <t xml:space="preserve">30.978600</t>
   </si>
   <si>
     <t xml:space="preserve">Q5</t>
   </si>
   <si>
-    <t xml:space="preserve">-15.875000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.848800</t>
+    <t xml:space="preserve">-24.025000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.498800</t>
   </si>
   <si>
     <t xml:space="preserve">Q6</t>
   </si>
   <si>
-    <t xml:space="preserve">-16.002000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.847800</t>
+    <t xml:space="preserve">-24.152000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.497800</t>
   </si>
   <si>
     <t xml:space="preserve">R1</t>
@@ -1021,22 +1024,22 @@
     <t xml:space="preserve">2.900000</t>
   </si>
   <si>
-    <t xml:space="preserve">-29.500000</t>
-  </si>
-  <si>
     <t xml:space="preserve">R25</t>
   </si>
   <si>
-    <t xml:space="preserve">42.974500</t>
+    <t xml:space="preserve">0.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.137500</t>
   </si>
   <si>
     <t xml:space="preserve">R26</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.497000</t>
+    <t xml:space="preserve">0.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.037500</t>
   </si>
   <si>
     <t xml:space="preserve">R27</t>
@@ -1054,25 +1057,28 @@
     <t xml:space="preserve">R28</t>
   </si>
   <si>
-    <t xml:space="preserve">-27.279600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.901900</t>
+    <t xml:space="preserve">-35.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.037500</t>
   </si>
   <si>
     <t xml:space="preserve">R29</t>
   </si>
   <si>
-    <t xml:space="preserve">-40.703500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.606500</t>
+    <t xml:space="preserve">-48.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.537500</t>
   </si>
   <si>
     <t xml:space="preserve">R30</t>
   </si>
   <si>
-    <t xml:space="preserve">38.834300</t>
+    <t xml:space="preserve">-32.950000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.300000</t>
   </si>
   <si>
     <t xml:space="preserve">R31</t>
@@ -1084,25 +1090,28 @@
     <t xml:space="preserve">R_2512_6332Metric</t>
   </si>
   <si>
-    <t xml:space="preserve">3.450000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.227000</t>
+    <t xml:space="preserve">-8.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.000000</t>
   </si>
   <si>
     <t xml:space="preserve">R32</t>
   </si>
   <si>
-    <t xml:space="preserve">16.533100</t>
+    <t xml:space="preserve">-35.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.937500</t>
   </si>
   <si>
     <t xml:space="preserve">R33</t>
   </si>
   <si>
-    <t xml:space="preserve">3.680700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.111200</t>
+    <t xml:space="preserve">-12.375000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.512500</t>
   </si>
   <si>
     <t xml:space="preserve">R34</t>
@@ -1120,19 +1129,25 @@
     <t xml:space="preserve">R35</t>
   </si>
   <si>
-    <t xml:space="preserve">4k70</t>
-  </si>
-  <si>
     <t xml:space="preserve">39.762500</t>
   </si>
   <si>
     <t xml:space="preserve">R36</t>
   </si>
   <si>
-    <t xml:space="preserve">-46.692500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.170000</t>
+    <t xml:space="preserve">-24.337500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.600000</t>
   </si>
   <si>
     <t xml:space="preserve">R38</t>
@@ -1150,40 +1165,46 @@
     <t xml:space="preserve">-34.200000</t>
   </si>
   <si>
+    <t xml:space="preserve">R40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.562500</t>
+  </si>
+  <si>
     <t xml:space="preserve">R42</t>
   </si>
   <si>
-    <t xml:space="preserve">-11.633200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.775900</t>
+    <t xml:space="preserve">-20.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.962500</t>
   </si>
   <si>
     <t xml:space="preserve">R43</t>
   </si>
   <si>
-    <t xml:space="preserve">-11.684000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.638000</t>
+    <t xml:space="preserve">22.537500</t>
   </si>
   <si>
     <t xml:space="preserve">R45</t>
   </si>
   <si>
-    <t xml:space="preserve">-36.957000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.035000</t>
+    <t xml:space="preserve">-44.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.800000</t>
   </si>
   <si>
     <t xml:space="preserve">R46</t>
   </si>
   <si>
-    <t xml:space="preserve">-21.082000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.052000</t>
+    <t xml:space="preserve">-29.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.600000</t>
   </si>
   <si>
     <t xml:space="preserve">U1</t>
@@ -1225,10 +1246,10 @@
     <t xml:space="preserve">SOIC-8_3.9x4.9mm_P1.27mm</t>
   </si>
   <si>
-    <t xml:space="preserve">-47.105000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.900000</t>
+    <t xml:space="preserve">-31.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.300000</t>
   </si>
   <si>
     <t xml:space="preserve">U4</t>
@@ -1240,55 +1261,52 @@
     <t xml:space="preserve">INA240A1QPWRQ1</t>
   </si>
   <si>
-    <t xml:space="preserve">-41.249600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.958800</t>
+    <t xml:space="preserve">-48.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.649999</t>
   </si>
   <si>
     <t xml:space="preserve">U5</t>
   </si>
   <si>
-    <t xml:space="preserve">3.373001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.648400</t>
+    <t xml:space="preserve">-13.199999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.574999</t>
   </si>
   <si>
     <t xml:space="preserve">U6</t>
   </si>
   <si>
-    <t xml:space="preserve">-25.603200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.153600</t>
+    <t xml:space="preserve">-33.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.700000</t>
   </si>
   <si>
     <t xml:space="preserve">U7</t>
   </si>
   <si>
-    <t xml:space="preserve">-37.211000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.304000</t>
+    <t xml:space="preserve">-44.793800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.500001</t>
   </si>
   <si>
     <t xml:space="preserve">U8</t>
   </si>
   <si>
-    <t xml:space="preserve">-26.223001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.786300</t>
+    <t xml:space="preserve">-29.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.800000</t>
   </si>
   <si>
     <t xml:space="preserve">U9</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.622300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.493001</t>
+    <t xml:space="preserve">-8.800000</t>
   </si>
   <si>
     <t xml:space="preserve">U10</t>
@@ -1318,10 +1336,10 @@
     <t xml:space="preserve">U12</t>
   </si>
   <si>
-    <t xml:space="preserve">-37.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.000000</t>
+    <t xml:space="preserve">-16.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.500000</t>
   </si>
   <si>
     <t xml:space="preserve">U13</t>
@@ -1348,10 +1366,10 @@
     <t xml:space="preserve">U15</t>
   </si>
   <si>
-    <t xml:space="preserve">-27.700000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.800000</t>
+    <t xml:space="preserve">4.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.800000</t>
   </si>
   <si>
     <t xml:space="preserve">U16</t>
@@ -1367,6 +1385,15 @@
   </si>
   <si>
     <t xml:space="preserve">-2.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMP100NA_250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.500000</t>
   </si>
   <si>
     <t xml:space="preserve">Y1</t>
@@ -1461,12 +1488,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1491,17 +1514,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F139" activeCellId="0" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.18"/>
@@ -1547,7 +1570,7 @@
       <c r="E2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="0" t="s">
@@ -1570,7 +1593,7 @@
       <c r="E3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="0" t="s">
@@ -1593,7 +1616,7 @@
       <c r="E4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
@@ -1616,7 +1639,7 @@
       <c r="E5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="0" t="s">
@@ -1639,7 +1662,7 @@
       <c r="E6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="0" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="0" t="s">
@@ -1662,7 +1685,7 @@
       <c r="E7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="0" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="0" t="s">
@@ -1685,7 +1708,7 @@
       <c r="E8" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="0" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="0" t="s">
@@ -1708,7 +1731,7 @@
       <c r="E9" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="0" t="s">
@@ -1731,7 +1754,7 @@
       <c r="E10" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="0" t="s">
@@ -1754,7 +1777,7 @@
       <c r="E11" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="0" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="0" t="s">
@@ -1777,7 +1800,7 @@
       <c r="E12" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="0" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="0" t="s">
@@ -1800,7 +1823,7 @@
       <c r="E13" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="0" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="0" t="s">
@@ -1823,7 +1846,7 @@
       <c r="E14" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="0" t="s">
@@ -1846,8 +1869,8 @@
       <c r="E15" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>27</v>
+      <c r="F15" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>13</v>
@@ -1869,7 +1892,7 @@
       <c r="E16" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="0" t="s">
@@ -1892,7 +1915,7 @@
       <c r="E17" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="0" t="s">
@@ -1915,7 +1938,7 @@
       <c r="E18" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="0" t="s">
@@ -1938,7 +1961,7 @@
       <c r="E19" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="0" t="s">
@@ -1961,7 +1984,7 @@
       <c r="E20" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="0" t="s">
@@ -1984,7 +2007,7 @@
       <c r="E21" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G21" s="0" t="s">
@@ -2007,7 +2030,7 @@
       <c r="E22" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="0" t="s">
@@ -2028,9 +2051,9 @@
         <v>80</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="0" t="s">
@@ -2039,7 +2062,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>53</v>
@@ -2048,12 +2071,12 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G24" s="0" t="s">
@@ -2062,7 +2085,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>53</v>
@@ -2071,13 +2094,13 @@
         <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>27</v>
+        <v>87</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>13</v>
@@ -2085,7 +2108,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>8</v>
@@ -2094,12 +2117,12 @@
         <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="0" t="s">
         <v>27</v>
       </c>
       <c r="G26" s="0" t="s">
@@ -2108,21 +2131,21 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G27" s="0" t="s">
@@ -2131,7 +2154,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>8</v>
@@ -2140,12 +2163,12 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G28" s="0" t="s">
@@ -2154,7 +2177,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>29</v>
@@ -2163,12 +2186,12 @@
         <v>9</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="0" t="s">
@@ -2177,7 +2200,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>29</v>
@@ -2186,13 +2209,13 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>40</v>
+        <v>101</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>13</v>
@@ -2200,7 +2223,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>8</v>
@@ -2209,12 +2232,12 @@
         <v>9</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>27</v>
       </c>
       <c r="G31" s="0" t="s">
@@ -2223,7 +2246,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>53</v>
@@ -2232,12 +2255,12 @@
         <v>9</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="0" t="s">
@@ -2246,7 +2269,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>8</v>
@@ -2255,12 +2278,12 @@
         <v>9</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G33" s="0" t="s">
@@ -2269,21 +2292,21 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="0" t="s">
@@ -2292,21 +2315,21 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G35" s="0" t="s">
@@ -2315,21 +2338,21 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>27</v>
       </c>
       <c r="G36" s="0" t="s">
@@ -2338,7 +2361,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>60</v>
@@ -2347,13 +2370,13 @@
         <v>61</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>27</v>
+        <v>124</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>13</v>
@@ -2361,7 +2384,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>60</v>
@@ -2370,12 +2393,12 @@
         <v>61</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="0" t="s">
@@ -2384,7 +2407,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>60</v>
@@ -2393,12 +2416,12 @@
         <v>61</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="F39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G39" s="0" t="s">
@@ -2407,7 +2430,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>60</v>
@@ -2416,12 +2439,12 @@
         <v>61</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G40" s="0" t="s">
@@ -2430,21 +2453,21 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="F41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="0" t="s">
         <v>27</v>
       </c>
       <c r="G41" s="0" t="s">
@@ -2453,7 +2476,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>53</v>
@@ -2462,13 +2485,13 @@
         <v>9</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>40</v>
+        <v>96</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>13</v>
@@ -2490,7 +2513,7 @@
       <c r="E43" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="0" t="s">
@@ -2508,13 +2531,13 @@
         <v>61</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>27</v>
+      <c r="F44" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>13</v>
@@ -2531,12 +2554,12 @@
         <v>61</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G45" s="0" t="s">
@@ -2545,7 +2568,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>8</v>
@@ -2554,13 +2577,13 @@
         <v>9</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>40</v>
+        <v>146</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>13</v>
@@ -2568,7 +2591,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>8</v>
@@ -2577,13 +2600,13 @@
         <v>9</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>40</v>
+        <v>149</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>13</v>
@@ -2591,21 +2614,21 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="F48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F48" s="0" t="s">
         <v>27</v>
       </c>
       <c r="G48" s="0" t="s">
@@ -2614,7 +2637,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>8</v>
@@ -2623,13 +2646,13 @@
         <v>9</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>40</v>
+        <v>154</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>13</v>
@@ -2637,7 +2660,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>29</v>
@@ -2646,12 +2669,12 @@
         <v>9</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="F50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F50" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G50" s="0" t="s">
@@ -2660,21 +2683,21 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="F51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F51" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G51" s="0" t="s">
@@ -2683,21 +2706,21 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="F52" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F52" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G52" s="0" t="s">
@@ -2706,21 +2729,21 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="F53" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F53" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G53" s="0" t="s">
@@ -2729,21 +2752,21 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="F54" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F54" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G54" s="0" t="s">
@@ -2752,21 +2775,21 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="F55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F55" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G55" s="0" t="s">
@@ -2775,21 +2798,21 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F56" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F56" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G56" s="0" t="s">
@@ -2798,21 +2821,21 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F57" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F57" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G57" s="0" t="s">
@@ -2821,22 +2844,22 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>40</v>
+        <v>191</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="G58" s="0" t="s">
         <v>13</v>
@@ -2844,22 +2867,22 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>40</v>
+        <v>194</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>13</v>
@@ -2867,22 +2890,22 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>40</v>
+        <v>197</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>13</v>
@@ -2890,21 +2913,21 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="F61" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F61" s="0" t="s">
         <v>27</v>
       </c>
       <c r="G61" s="0" t="s">
@@ -2913,22 +2936,22 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="F62" s="1" t="s">
         <v>205</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>206</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>13</v>
@@ -2936,22 +2959,22 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="F63" s="1" t="s">
         <v>209</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>210</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>13</v>
@@ -2959,22 +2982,22 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="F64" s="1" t="s">
         <v>213</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>214</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>13</v>
@@ -2982,21 +3005,21 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="F65" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F65" s="0" t="s">
         <v>27</v>
       </c>
       <c r="G65" s="0" t="s">
@@ -3005,21 +3028,21 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="F66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F66" s="0" t="s">
         <v>27</v>
       </c>
       <c r="G66" s="0" t="s">
@@ -3028,22 +3051,22 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="F67" s="1" t="s">
         <v>228</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>229</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>13</v>
@@ -3051,21 +3074,21 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="F68" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F68" s="0" t="s">
         <v>27</v>
       </c>
       <c r="G68" s="0" t="s">
@@ -3074,21 +3097,21 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="F69" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F69" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G69" s="0" t="s">
@@ -3097,21 +3120,21 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="F70" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F70" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G70" s="0" t="s">
@@ -3120,21 +3143,21 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="F71" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F71" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G71" s="0" t="s">
@@ -3143,21 +3166,21 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="F72" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F72" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G72" s="0" t="s">
@@ -3166,21 +3189,21 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="F73" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F73" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G73" s="0" t="s">
@@ -3189,21 +3212,21 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="F74" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F74" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G74" s="0" t="s">
@@ -3212,21 +3235,21 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="F75" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F75" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G75" s="0" t="s">
@@ -3235,21 +3258,21 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="F76" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F76" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G76" s="0" t="s">
@@ -3258,21 +3281,21 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F77" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F77" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G77" s="0" t="s">
@@ -3281,21 +3304,21 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="F78" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F78" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G78" s="0" t="s">
@@ -3304,21 +3327,21 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="F79" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F79" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G79" s="0" t="s">
@@ -3327,21 +3350,21 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="F80" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F80" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G80" s="0" t="s">
@@ -3350,21 +3373,21 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="F81" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F81" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G81" s="0" t="s">
@@ -3373,21 +3396,21 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="F82" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F82" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G82" s="0" t="s">
@@ -3396,21 +3419,21 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="F83" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F83" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G83" s="0" t="s">
@@ -3419,21 +3442,21 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="F84" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F84" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G84" s="0" t="s">
@@ -3442,21 +3465,21 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="F85" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G85" s="0" t="s">
@@ -3465,21 +3488,21 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="F86" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G86" s="0" t="s">
@@ -3488,21 +3511,21 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="F87" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G87" s="0" t="s">
@@ -3511,21 +3534,21 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="F88" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F88" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G88" s="0" t="s">
@@ -3534,21 +3557,21 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E89" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G89" s="0" t="s">
@@ -3557,21 +3580,21 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E90" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G90" s="0" t="s">
@@ -3580,21 +3603,21 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="F91" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F91" s="0" t="s">
         <v>27</v>
       </c>
       <c r="G91" s="0" t="s">
@@ -3603,21 +3626,21 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="F92" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F92" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G92" s="0" t="s">
@@ -3626,21 +3649,21 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="F93" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F93" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G93" s="0" t="s">
@@ -3649,21 +3672,21 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="E94" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="B94" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G94" s="0" t="s">
@@ -3672,21 +3695,21 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="F95" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F95" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G95" s="0" t="s">
@@ -3695,21 +3718,21 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="E96" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="B96" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="E96" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G96" s="0" t="s">
@@ -3718,21 +3741,21 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="F97" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F97" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G97" s="0" t="s">
@@ -3741,21 +3764,21 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="F98" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F98" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G98" s="0" t="s">
@@ -3764,21 +3787,21 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="F99" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F99" s="0" t="s">
         <v>27</v>
       </c>
       <c r="G99" s="0" t="s">
@@ -3787,21 +3810,21 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="F100" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F100" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G100" s="0" t="s">
@@ -3813,19 +3836,19 @@
         <v>334</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>21</v>
+        <v>335</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>40</v>
+        <v>336</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>13</v>
@@ -3833,22 +3856,22 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>12</v>
+        <v>339</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>13</v>
@@ -3856,21 +3879,21 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="F103" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F103" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G103" s="0" t="s">
@@ -3879,21 +3902,21 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="F104" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F104" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G104" s="0" t="s">
@@ -3902,21 +3925,21 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="F105" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F105" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G105" s="0" t="s">
@@ -3925,22 +3948,22 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>152</v>
+        <v>351</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>40</v>
+        <v>352</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>13</v>
@@ -3948,22 +3971,22 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>27</v>
+        <v>357</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G107" s="0" t="s">
         <v>13</v>
@@ -3971,21 +3994,21 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="F108" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F108" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G108" s="0" t="s">
@@ -3994,22 +4017,22 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>27</v>
+        <v>363</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>13</v>
@@ -4017,21 +4040,21 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="F110" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F110" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G110" s="0" t="s">
@@ -4040,21 +4063,21 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B111" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="B111" s="0" t="s">
-        <v>366</v>
-      </c>
       <c r="C111" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="F111" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F111" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G111" s="0" t="s">
@@ -4063,21 +4086,21 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F112" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F112" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G112" s="0" t="s">
@@ -4086,22 +4109,22 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>21</v>
+        <v>375</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G113" s="0" t="s">
         <v>13</v>
@@ -4109,21 +4132,21 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="F114" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F114" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G114" s="0" t="s">
@@ -4132,22 +4155,22 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>12</v>
+        <v>380</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="G115" s="0" t="s">
         <v>13</v>
@@ -4155,22 +4178,22 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>40</v>
+        <v>383</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G116" s="0" t="s">
         <v>13</v>
@@ -4178,21 +4201,21 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>353</v>
+        <v>263</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="F117" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F117" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G117" s="0" t="s">
@@ -4201,22 +4224,22 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="D118" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="B118" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>386</v>
-      </c>
       <c r="E118" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>12</v>
+        <v>388</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="G118" s="0" t="s">
         <v>13</v>
@@ -4224,21 +4247,21 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="C119" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D119" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="E119" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="E119" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="F119" s="1" t="s">
+      <c r="F119" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G119" s="0" t="s">
@@ -4247,21 +4270,21 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D120" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="E120" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="C120" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="F120" s="1" t="s">
+      <c r="F120" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G120" s="0" t="s">
@@ -4270,22 +4293,22 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="D121" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="E121" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="C121" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="D121" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="E121" s="0" t="s">
-        <v>402</v>
-      </c>
       <c r="F121" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G121" s="0" t="s">
         <v>13</v>
@@ -4293,22 +4316,22 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D122" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="E122" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="C122" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="E122" s="0" t="s">
-        <v>407</v>
-      </c>
       <c r="F122" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G122" s="0" t="s">
         <v>13</v>
@@ -4316,22 +4339,22 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D123" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="B123" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="D123" s="0" t="s">
+      <c r="E123" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="E123" s="0" t="s">
-        <v>410</v>
-      </c>
       <c r="F123" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G123" s="0" t="s">
         <v>13</v>
@@ -4339,22 +4362,22 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B124" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="B124" s="0" t="s">
-        <v>404</v>
-      </c>
       <c r="C124" s="0" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G124" s="0" t="s">
         <v>13</v>
@@ -4362,22 +4385,22 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G125" s="0" t="s">
         <v>13</v>
@@ -4385,22 +4408,22 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G126" s="0" t="s">
         <v>13</v>
@@ -4408,19 +4431,19 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>12</v>
@@ -4431,22 +4454,22 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="C128" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D128" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="D128" s="0" t="s">
+      <c r="E128" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="E128" s="0" t="s">
-        <v>427</v>
-      </c>
       <c r="F128" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G128" s="0" t="s">
         <v>13</v>
@@ -4454,19 +4477,19 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D129" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="B129" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="D129" s="0" t="s">
-        <v>429</v>
-      </c>
       <c r="E129" s="0" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>12</v>
@@ -4477,13 +4500,13 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C130" s="0" t="s">
         <v>431</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>400</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>432</v>
@@ -4492,7 +4515,7 @@
         <v>433</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G130" s="0" t="s">
         <v>13</v>
@@ -4503,16 +4526,16 @@
         <v>434</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>435</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>12</v>
@@ -4523,22 +4546,22 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="C132" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D132" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="D132" s="0" t="s">
+      <c r="E132" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="E132" s="0" t="s">
-        <v>440</v>
-      </c>
       <c r="F132" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G132" s="0" t="s">
         <v>13</v>
@@ -4546,22 +4569,22 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D133" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="B133" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="D133" s="0" t="s">
-        <v>442</v>
-      </c>
       <c r="E133" s="0" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G133" s="0" t="s">
         <v>13</v>
@@ -4569,22 +4592,22 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="C134" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="D134" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="E134" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="D134" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="E134" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>21</v>
+      <c r="F134" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G134" s="0" t="s">
         <v>13</v>
@@ -4592,24 +4615,93 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="E135" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="F135" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G135" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="B136" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="D135" s="0" t="s">
+      <c r="C136" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="E135" s="0" t="s">
+      <c r="D136" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="E136" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G136" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="F137" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G137" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="F138" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G135" s="0" t="s">
+      <c r="G138" s="0" t="s">
         <v>13</v>
       </c>
     </row>
